--- a/Macys_test_cases.xlsx
+++ b/Macys_test_cases.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-84" yWindow="-120" windowWidth="27492" windowHeight="11892" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="-84" yWindow="-120" windowWidth="27492" windowHeight="11892" tabRatio="976" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="MarchingPasses28Oct2016_122361" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Admin_MarchingPasses_test_cases" sheetId="4" r:id="rId4"/>
     <sheet name="Volunteer_MarchingPasses_TC" sheetId="5" r:id="rId5"/>
     <sheet name="Mobile devices_Test_Cases" sheetId="6" r:id="rId6"/>
+    <sheet name="Mobile" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -4465,7 +4466,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:C4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4933,4 +4936,16 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>